--- a/res/学生论文题目.xlsx
+++ b/res/学生论文题目.xlsx
@@ -9,7 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -18,7 +18,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="000000"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="15">
     <font>
       <name val="宋体"/>
       <charset val="134"/>
@@ -84,6 +84,34 @@
       <sz val="10"/>
     </font>
     <font>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <color indexed="8"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <color indexed="8"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="10"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="134"/>
       <sz val="9"/>
@@ -137,7 +165,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -178,8 +206,13 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="1" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="1" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -732,21 +765,21 @@
   </sheetPr>
   <dimension ref="A1:CQ37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AA10" sqref="AA10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.90625" defaultRowHeight="14" outlineLevelCol="0"/>
   <cols>
-    <col width="18.90625" customWidth="1" style="17" min="9" max="9"/>
-    <col width="17.6328125" customWidth="1" style="17" min="18" max="18"/>
-    <col width="14.26953125" customWidth="1" style="17" min="19" max="19"/>
-    <col width="37.453125" customWidth="1" style="17" min="21" max="21"/>
-    <col width="28.08984375" customWidth="1" style="17" min="22" max="22"/>
-    <col width="24.26953125" customWidth="1" style="17" min="23" max="23"/>
-    <col width="43.26953125" customWidth="1" style="17" min="25" max="25"/>
-    <col width="31.453125" customWidth="1" style="17" min="26" max="26"/>
-    <col width="48.08984375" customWidth="1" style="17" min="27" max="27"/>
+    <col width="18.90625" customWidth="1" style="19" min="9" max="9"/>
+    <col width="17.6328125" customWidth="1" style="16" min="18" max="18"/>
+    <col width="14.26953125" customWidth="1" style="16" min="19" max="19"/>
+    <col width="37.453125" customWidth="1" style="16" min="21" max="21"/>
+    <col width="28.08984375" customWidth="1" style="16" min="22" max="22"/>
+    <col width="24.26953125" customWidth="1" style="16" min="23" max="23"/>
+    <col width="43.26953125" customWidth="1" style="16" min="25" max="25"/>
+    <col width="47.08984375" customWidth="1" style="16" min="26" max="26"/>
+    <col width="48.08984375" customWidth="1" style="16" min="27" max="27"/>
   </cols>
   <sheetData>
     <row r="1" ht="34.5" customFormat="1" customHeight="1" s="1">
@@ -770,12 +803,12 @@
           <t>培养单位名称</t>
         </is>
       </c>
-      <c r="E1" s="18" t="inlineStr">
+      <c r="E1" s="23" t="inlineStr">
         <is>
           <t>学士学位专业代码</t>
         </is>
       </c>
-      <c r="F1" s="18" t="inlineStr">
+      <c r="F1" s="23" t="inlineStr">
         <is>
           <t>学士学位专业名称</t>
         </is>
@@ -800,7 +833,7 @@
           <t>考生号</t>
         </is>
       </c>
-      <c r="K1" s="18" t="inlineStr">
+      <c r="K1" s="23" t="inlineStr">
         <is>
           <t>毕业年月</t>
         </is>
@@ -835,17 +868,17 @@
           <t>是否辅修学位</t>
         </is>
       </c>
-      <c r="R1" s="18" t="inlineStr">
+      <c r="R1" s="23" t="inlineStr">
         <is>
           <t>学位类型</t>
         </is>
       </c>
-      <c r="S1" s="19" t="inlineStr">
+      <c r="S1" s="24" t="inlineStr">
         <is>
           <t>论文类型</t>
         </is>
       </c>
-      <c r="T1" s="19" t="inlineStr">
+      <c r="T1" s="24" t="inlineStr">
         <is>
           <t>导师姓名</t>
         </is>
@@ -952,7 +985,7 @@
           <t>202009</t>
         </is>
       </c>
-      <c r="I2" s="16" t="inlineStr">
+      <c r="I2" s="18" t="inlineStr">
         <is>
           <t>202002020222</t>
         </is>
@@ -1158,7 +1191,7 @@
           <t>202009</t>
         </is>
       </c>
-      <c r="I3" s="5" t="inlineStr">
+      <c r="I3" s="13" t="inlineStr">
         <is>
           <t>202002020216</t>
         </is>
@@ -1364,7 +1397,7 @@
           <t>202209</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="I4" s="13" t="inlineStr">
         <is>
           <t>202240292017</t>
         </is>
@@ -1570,7 +1603,7 @@
           <t>202209</t>
         </is>
       </c>
-      <c r="I5" s="5" t="inlineStr">
+      <c r="I5" s="13" t="inlineStr">
         <is>
           <t>202240292024</t>
         </is>
@@ -1776,7 +1809,7 @@
           <t>202209</t>
         </is>
       </c>
-      <c r="I6" s="5" t="inlineStr">
+      <c r="I6" s="13" t="inlineStr">
         <is>
           <t>202240292001</t>
         </is>
@@ -1982,7 +2015,7 @@
           <t>202009</t>
         </is>
       </c>
-      <c r="I7" s="5" t="inlineStr">
+      <c r="I7" s="13" t="inlineStr">
         <is>
           <t>202002020229</t>
         </is>
@@ -2188,7 +2221,7 @@
           <t>202209</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="I8" s="13" t="inlineStr">
         <is>
           <t>202240292085</t>
         </is>
@@ -2244,7 +2277,7 @@
           <t>杨柳莎</t>
         </is>
       </c>
-      <c r="U8" s="5" t="inlineStr">
+      <c r="U8" s="22" t="inlineStr">
         <is>
           <t>基于python的电影数据爬取，分析与可视化</t>
         </is>
@@ -2394,7 +2427,7 @@
           <t>202009</t>
         </is>
       </c>
-      <c r="I9" s="5" t="inlineStr">
+      <c r="I9" s="13" t="inlineStr">
         <is>
           <t>202002020126</t>
         </is>
@@ -2584,20 +2617,21 @@
       <c r="R10" s="5" t="n"/>
       <c r="S10" s="5" t="n"/>
       <c r="T10" s="5" t="n"/>
-      <c r="U10" s="5" t="inlineStr">
-        <is>
-          <t>大语言模型评估平台的对比和评测</t>
+      <c r="U10" s="17" t="inlineStr">
+        <is>
+          <t>大语言模型评估平台的对比与评测</t>
         </is>
       </c>
       <c r="V10" s="5" t="n"/>
       <c r="W10" s="5" t="n"/>
       <c r="X10" s="5" t="n"/>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>2324_44_14655_080901_202001020107_LW.pdf</t>
-        </is>
-      </c>
-      <c r="AA10" t="inlineStr">
+      <c r="Y10" s="0" t="n"/>
+      <c r="Z10" s="0" t="inlineStr">
+        <is>
+          <t>2324_44_14655_080901_202001020107_CL.zip</t>
+        </is>
+      </c>
+      <c r="AA10" s="0" t="inlineStr">
         <is>
           <t>2324_44_14655_080901_202001020107_CCBG.pdf</t>
         </is>
@@ -2679,7 +2713,11 @@
       <c r="F11" s="5" t="n"/>
       <c r="G11" s="5" t="n"/>
       <c r="H11" s="5" t="n"/>
-      <c r="I11" s="5" t="n"/>
+      <c r="I11" s="13" t="inlineStr">
+        <is>
+          <t>202011100217</t>
+        </is>
+      </c>
       <c r="J11" s="5" t="n"/>
       <c r="K11" s="5" t="n"/>
       <c r="L11" s="5" t="n"/>
@@ -2691,10 +2729,24 @@
       <c r="R11" s="5" t="n"/>
       <c r="S11" s="5" t="n"/>
       <c r="T11" s="5" t="n"/>
-      <c r="U11" s="5" t="n"/>
+      <c r="U11" s="20" t="inlineStr">
+        <is>
+          <t>基于医学图像的大数据管理平台系统设计与开发</t>
+        </is>
+      </c>
       <c r="V11" s="5" t="n"/>
       <c r="W11" s="5" t="n"/>
       <c r="X11" s="5" t="n"/>
+      <c r="Y11" s="0" t="inlineStr">
+        <is>
+          <t>2324_44_14655_080901_202011100217_LW.pdf</t>
+        </is>
+      </c>
+      <c r="Z11" s="0" t="inlineStr">
+        <is>
+          <t>2324_44_14655_080901_202011100217_CL.zip</t>
+        </is>
+      </c>
       <c r="AC11" s="13" t="n"/>
       <c r="AD11" s="14" t="n"/>
       <c r="AE11" s="15" t="n"/>
@@ -2772,7 +2824,11 @@
       <c r="F12" s="5" t="n"/>
       <c r="G12" s="5" t="n"/>
       <c r="H12" s="5" t="n"/>
-      <c r="I12" s="5" t="n"/>
+      <c r="I12" s="13" t="inlineStr">
+        <is>
+          <t>202240292065</t>
+        </is>
+      </c>
       <c r="J12" s="5" t="n"/>
       <c r="K12" s="5" t="n"/>
       <c r="L12" s="5" t="n"/>
@@ -2784,10 +2840,29 @@
       <c r="R12" s="5" t="n"/>
       <c r="S12" s="5" t="n"/>
       <c r="T12" s="5" t="n"/>
-      <c r="U12" s="5" t="n"/>
+      <c r="U12" s="21" t="inlineStr">
+        <is>
+          <t>前端监控平台及其 SDK的设计与实现</t>
+        </is>
+      </c>
       <c r="V12" s="5" t="n"/>
       <c r="W12" s="5" t="n"/>
       <c r="X12" s="5" t="n"/>
+      <c r="Y12" s="0" t="inlineStr">
+        <is>
+          <t>2324_44_14655_080901_202240292065_LW.pdf</t>
+        </is>
+      </c>
+      <c r="Z12" s="0" t="inlineStr">
+        <is>
+          <t>2324_44_14655_080901_202240292065_CL.zip</t>
+        </is>
+      </c>
+      <c r="AA12" s="0" t="inlineStr">
+        <is>
+          <t>2324_44_14655_080901_202240292065_CCBG.pdf</t>
+        </is>
+      </c>
       <c r="AC12" s="13" t="n"/>
       <c r="AD12" s="14" t="n"/>
       <c r="AE12" s="15" t="n"/>
@@ -2865,7 +2940,7 @@
       <c r="F13" s="5" t="n"/>
       <c r="G13" s="5" t="n"/>
       <c r="H13" s="5" t="n"/>
-      <c r="I13" s="5" t="n"/>
+      <c r="I13" s="13" t="n"/>
       <c r="J13" s="5" t="n"/>
       <c r="K13" s="5" t="n"/>
       <c r="L13" s="5" t="n"/>
@@ -2958,7 +3033,7 @@
       <c r="F14" s="5" t="n"/>
       <c r="G14" s="5" t="n"/>
       <c r="H14" s="5" t="n"/>
-      <c r="I14" s="5" t="n"/>
+      <c r="I14" s="13" t="n"/>
       <c r="J14" s="5" t="n"/>
       <c r="K14" s="5" t="n"/>
       <c r="L14" s="5" t="n"/>
@@ -3051,7 +3126,7 @@
       <c r="F15" s="5" t="n"/>
       <c r="G15" s="5" t="n"/>
       <c r="H15" s="5" t="n"/>
-      <c r="I15" s="5" t="n"/>
+      <c r="I15" s="13" t="n"/>
       <c r="J15" s="5" t="n"/>
       <c r="K15" s="5" t="n"/>
       <c r="L15" s="5" t="n"/>
@@ -3144,7 +3219,7 @@
       <c r="F16" s="5" t="n"/>
       <c r="G16" s="5" t="n"/>
       <c r="H16" s="5" t="n"/>
-      <c r="I16" s="5" t="n"/>
+      <c r="I16" s="13" t="n"/>
       <c r="J16" s="5" t="n"/>
       <c r="K16" s="5" t="n"/>
       <c r="L16" s="5" t="n"/>
@@ -3237,7 +3312,7 @@
       <c r="F17" s="5" t="n"/>
       <c r="G17" s="5" t="n"/>
       <c r="H17" s="5" t="n"/>
-      <c r="I17" s="5" t="n"/>
+      <c r="I17" s="13" t="n"/>
       <c r="J17" s="5" t="n"/>
       <c r="K17" s="5" t="n"/>
       <c r="L17" s="5" t="n"/>
@@ -3330,7 +3405,7 @@
       <c r="F18" s="5" t="n"/>
       <c r="G18" s="5" t="n"/>
       <c r="H18" s="5" t="n"/>
-      <c r="I18" s="5" t="n"/>
+      <c r="I18" s="13" t="n"/>
       <c r="J18" s="5" t="n"/>
       <c r="K18" s="5" t="n"/>
       <c r="L18" s="5" t="n"/>
@@ -3423,7 +3498,7 @@
       <c r="F19" s="5" t="n"/>
       <c r="G19" s="5" t="n"/>
       <c r="H19" s="5" t="n"/>
-      <c r="I19" s="5" t="n"/>
+      <c r="I19" s="13" t="n"/>
       <c r="J19" s="5" t="n"/>
       <c r="K19" s="5" t="n"/>
       <c r="L19" s="5" t="n"/>
@@ -3516,7 +3591,7 @@
       <c r="F20" s="5" t="n"/>
       <c r="G20" s="5" t="n"/>
       <c r="H20" s="5" t="n"/>
-      <c r="I20" s="5" t="n"/>
+      <c r="I20" s="13" t="n"/>
       <c r="J20" s="5" t="n"/>
       <c r="K20" s="5" t="n"/>
       <c r="L20" s="5" t="n"/>
@@ -3609,7 +3684,7 @@
       <c r="F21" s="5" t="n"/>
       <c r="G21" s="5" t="n"/>
       <c r="H21" s="5" t="n"/>
-      <c r="I21" s="5" t="n"/>
+      <c r="I21" s="13" t="n"/>
       <c r="J21" s="5" t="n"/>
       <c r="K21" s="5" t="n"/>
       <c r="L21" s="5" t="n"/>
@@ -3702,7 +3777,7 @@
       <c r="F22" s="5" t="n"/>
       <c r="G22" s="5" t="n"/>
       <c r="H22" s="5" t="n"/>
-      <c r="I22" s="5" t="n"/>
+      <c r="I22" s="13" t="n"/>
       <c r="J22" s="5" t="n"/>
       <c r="K22" s="5" t="n"/>
       <c r="L22" s="5" t="n"/>
@@ -3795,7 +3870,7 @@
       <c r="F23" s="5" t="n"/>
       <c r="G23" s="5" t="n"/>
       <c r="H23" s="5" t="n"/>
-      <c r="I23" s="5" t="n"/>
+      <c r="I23" s="13" t="n"/>
       <c r="J23" s="5" t="n"/>
       <c r="K23" s="5" t="n"/>
       <c r="L23" s="5" t="n"/>
@@ -3888,7 +3963,7 @@
       <c r="F24" s="5" t="n"/>
       <c r="G24" s="5" t="n"/>
       <c r="H24" s="5" t="n"/>
-      <c r="I24" s="5" t="n"/>
+      <c r="I24" s="13" t="n"/>
       <c r="J24" s="5" t="n"/>
       <c r="K24" s="5" t="n"/>
       <c r="L24" s="5" t="n"/>
@@ -3981,7 +4056,7 @@
       <c r="F25" s="5" t="n"/>
       <c r="G25" s="5" t="n"/>
       <c r="H25" s="5" t="n"/>
-      <c r="I25" s="5" t="n"/>
+      <c r="I25" s="13" t="n"/>
       <c r="J25" s="5" t="n"/>
       <c r="K25" s="5" t="n"/>
       <c r="L25" s="5" t="n"/>
@@ -4074,7 +4149,7 @@
       <c r="F26" s="5" t="n"/>
       <c r="G26" s="5" t="n"/>
       <c r="H26" s="5" t="n"/>
-      <c r="I26" s="5" t="n"/>
+      <c r="I26" s="13" t="n"/>
       <c r="J26" s="5" t="n"/>
       <c r="K26" s="5" t="n"/>
       <c r="L26" s="5" t="n"/>
@@ -4167,7 +4242,7 @@
       <c r="F27" s="5" t="n"/>
       <c r="G27" s="5" t="n"/>
       <c r="H27" s="5" t="n"/>
-      <c r="I27" s="5" t="n"/>
+      <c r="I27" s="13" t="n"/>
       <c r="J27" s="5" t="n"/>
       <c r="K27" s="5" t="n"/>
       <c r="L27" s="5" t="n"/>
@@ -4260,7 +4335,7 @@
       <c r="F28" s="5" t="n"/>
       <c r="G28" s="5" t="n"/>
       <c r="H28" s="5" t="n"/>
-      <c r="I28" s="5" t="n"/>
+      <c r="I28" s="13" t="n"/>
       <c r="J28" s="5" t="n"/>
       <c r="K28" s="5" t="n"/>
       <c r="L28" s="5" t="n"/>
@@ -4353,7 +4428,7 @@
       <c r="F29" s="5" t="n"/>
       <c r="G29" s="5" t="n"/>
       <c r="H29" s="5" t="n"/>
-      <c r="I29" s="5" t="n"/>
+      <c r="I29" s="13" t="n"/>
       <c r="J29" s="5" t="n"/>
       <c r="K29" s="5" t="n"/>
       <c r="L29" s="5" t="n"/>
@@ -4446,7 +4521,7 @@
       <c r="F30" s="5" t="n"/>
       <c r="G30" s="5" t="n"/>
       <c r="H30" s="5" t="n"/>
-      <c r="I30" s="5" t="n"/>
+      <c r="I30" s="13" t="n"/>
       <c r="J30" s="5" t="n"/>
       <c r="K30" s="5" t="n"/>
       <c r="L30" s="5" t="n"/>
@@ -4539,7 +4614,7 @@
       <c r="F31" s="5" t="n"/>
       <c r="G31" s="5" t="n"/>
       <c r="H31" s="5" t="n"/>
-      <c r="I31" s="5" t="n"/>
+      <c r="I31" s="13" t="n"/>
       <c r="J31" s="5" t="n"/>
       <c r="K31" s="5" t="n"/>
       <c r="L31" s="5" t="n"/>
@@ -4632,7 +4707,7 @@
       <c r="F32" s="5" t="n"/>
       <c r="G32" s="5" t="n"/>
       <c r="H32" s="5" t="n"/>
-      <c r="I32" s="5" t="n"/>
+      <c r="I32" s="13" t="n"/>
       <c r="J32" s="5" t="n"/>
       <c r="K32" s="5" t="n"/>
       <c r="L32" s="5" t="n"/>
@@ -4725,7 +4800,7 @@
       <c r="F33" s="5" t="n"/>
       <c r="G33" s="5" t="n"/>
       <c r="H33" s="5" t="n"/>
-      <c r="I33" s="5" t="n"/>
+      <c r="I33" s="13" t="n"/>
       <c r="J33" s="5" t="n"/>
       <c r="K33" s="5" t="n"/>
       <c r="L33" s="5" t="n"/>
@@ -4818,7 +4893,7 @@
       <c r="F34" s="5" t="n"/>
       <c r="G34" s="5" t="n"/>
       <c r="H34" s="5" t="n"/>
-      <c r="I34" s="5" t="n"/>
+      <c r="I34" s="13" t="n"/>
       <c r="J34" s="5" t="n"/>
       <c r="K34" s="5" t="n"/>
       <c r="L34" s="5" t="n"/>
@@ -4911,7 +4986,7 @@
       <c r="F35" s="5" t="n"/>
       <c r="G35" s="5" t="n"/>
       <c r="H35" s="5" t="n"/>
-      <c r="I35" s="5" t="n"/>
+      <c r="I35" s="13" t="n"/>
       <c r="J35" s="5" t="n"/>
       <c r="K35" s="5" t="n"/>
       <c r="L35" s="5" t="n"/>
@@ -5004,7 +5079,7 @@
       <c r="F36" s="5" t="n"/>
       <c r="G36" s="5" t="n"/>
       <c r="H36" s="5" t="n"/>
-      <c r="I36" s="5" t="n"/>
+      <c r="I36" s="13" t="n"/>
       <c r="J36" s="5" t="n"/>
       <c r="K36" s="5" t="n"/>
       <c r="L36" s="5" t="n"/>
@@ -5097,7 +5172,7 @@
       <c r="F37" s="5" t="n"/>
       <c r="G37" s="5" t="n"/>
       <c r="H37" s="5" t="n"/>
-      <c r="I37" s="5" t="n"/>
+      <c r="I37" s="13" t="n"/>
       <c r="J37" s="5" t="n"/>
       <c r="K37" s="5" t="n"/>
       <c r="L37" s="5" t="n"/>
